--- a/data/trans_bre/P36BPD07_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Provincia-trans_bre.xlsx
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>2.321355233870603</v>
+        <v>-2.321355233870609</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2.932806724727399</v>
+        <v>-2.932806724727413</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.02765264304965324</v>
+        <v>-0.1446053073783012</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.0353736611951166</v>
+        <v>-0.1716028438666286</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.088996795639838</v>
+        <v>-8.582497120863533</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.688248527477038</v>
+        <v>-9.260878260204352</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.04666560866408941</v>
+        <v>-0.4377998767929225</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.04313599908090389</v>
+        <v>-0.4370988524754751</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.582497120863534</v>
+        <v>4.088996795639837</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.260878260204318</v>
+        <v>3.688248527477035</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.1073988822902546</v>
+        <v>0.3325393646171386</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1163186728830694</v>
+        <v>0.2964427225212797</v>
       </c>
     </row>
     <row r="7">
@@ -653,16 +653,16 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>4.356253421568301</v>
+        <v>-4.356253421568304</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.400832015570086</v>
+        <v>-1.400832015570094</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.05195414477199055</v>
+        <v>-0.2697043903658302</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.01752377281246449</v>
+        <v>-0.06982845279411641</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3768754269465847</v>
+        <v>-9.041521703188922</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.698770527441273</v>
+        <v>-7.392352175547131</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.00444212286730158</v>
+        <v>-0.4724173015413343</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.04463181536558544</v>
+        <v>-0.3070653284415458</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.041521703188909</v>
+        <v>-0.3768754269465825</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.392352175547133</v>
+        <v>3.698770527441274</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.112539697837665</v>
+        <v>-0.02637415832393019</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.09785543800530348</v>
+        <v>0.2071730999885976</v>
       </c>
     </row>
     <row r="10">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>2.478189595186719</v>
+        <v>-2.478189595186729</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>7.960057185281588</v>
+        <v>-7.960057185281573</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0258693705806582</v>
+        <v>-0.5895236845965759</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.09913368045784328</v>
+        <v>-0.4039857563832739</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04999254439191127</v>
+        <v>-5.090222682145414</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.906653077972955</v>
+        <v>-13.51072213393521</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.0003513911299399247</v>
+        <v>-0.8822652095201329</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.03500654765213445</v>
+        <v>-0.5680091649113679</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.090222682145409</v>
+        <v>-0.04999254439190821</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.51072213393518</v>
+        <v>-2.906653077972967</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.05378963722101389</v>
+        <v>0.0804502097516351</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1769397688562269</v>
+        <v>-0.1653042056674922</v>
       </c>
     </row>
     <row r="13">
@@ -781,16 +781,16 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>5.201340636580665</v>
+        <v>-5.201340636580667</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.821514514020461</v>
+        <v>-1.821514514020484</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.06602135596378547</v>
+        <v>-0.2451462002020219</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.02197334162056047</v>
+        <v>-0.106499915298711</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2821014335996475</v>
+        <v>-10.95165712292885</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.273908807862652</v>
+        <v>-9.324752954250123</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.003395468327906668</v>
+        <v>-0.4421307620143679</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.04964317114923641</v>
+        <v>-0.4149892061620976</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.95165712292885</v>
+        <v>0.2821014335996478</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.32475295425013</v>
+        <v>4.273908807862633</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1447970167737538</v>
+        <v>0.04122277564873887</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1201422889715639</v>
+        <v>0.3299192620975023</v>
       </c>
     </row>
     <row r="16">
@@ -845,16 +845,16 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>4.921393538455144</v>
+        <v>-4.92139353845514</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>10.81241241869583</v>
+        <v>-10.8124124186958</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>0.06056691291125183</v>
+        <v>-0.2625510471984889</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.1415870167841039</v>
+        <v>-0.457490999667232</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.962548429625747</v>
+        <v>-12.12583788893879</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.145950215981416</v>
+        <v>-18.35601086014568</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.0222981565216213</v>
+        <v>-0.5455018744992698</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.06198204776867731</v>
+        <v>-0.6284538046180904</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.12583788893879</v>
+        <v>1.962548429625746</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.35601086014568</v>
+        <v>-5.145950215981394</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.1592582824328627</v>
+        <v>0.1520761357804552</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.2611561821613838</v>
+        <v>-0.2499013978294702</v>
       </c>
     </row>
     <row r="19">
@@ -909,16 +909,16 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>4.45305312515818</v>
+        <v>-4.453053125158184</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>7.02015861321863</v>
+        <v>-7.020158613218627</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.05132865234569289</v>
+        <v>-0.3362241015920486</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.08187303277897658</v>
+        <v>-0.4924511019477833</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.9889796300791669</v>
+        <v>-9.777418789055288</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.935167460253175</v>
+        <v>-12.06963173338085</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.01222077875512259</v>
+        <v>-0.5905790192169377</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03315221864709181</v>
+        <v>-0.6834417841725755</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.777418789055286</v>
+        <v>0.9889796300791682</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>12.06963173338087</v>
+        <v>-2.935167460253139</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1166949576249062</v>
+        <v>0.1326946859456125</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1492142952988227</v>
+        <v>-0.2188486414805737</v>
       </c>
     </row>
     <row r="22">
@@ -973,16 +973,16 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-3.5967910768677</v>
+        <v>3.596791076867706</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6567465766240788</v>
+        <v>-0.6567465766240843</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>-0.04208213913748122</v>
+        <v>0.2475548072712892</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.00815063296768925</v>
+        <v>-0.03381133902945862</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.263252031134353</v>
+        <v>-0.1395132840169676</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.72083688348888</v>
+        <v>-5.223801177574618</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.09460910138661863</v>
+        <v>-0.01349885666929543</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.04463844047060794</v>
+        <v>-0.2429139100282661</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1395132840169679</v>
+        <v>8.263252031134357</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.22380117757462</v>
+        <v>3.720836883488882</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.001655196900275416</v>
+        <v>0.6682365149399643</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.06736352862767653</v>
+        <v>0.222351566486881</v>
       </c>
     </row>
     <row r="25">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>3.070217016201304</v>
+        <v>-3.070217016201307</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>9.090428698699442</v>
+        <v>-9.090428698699471</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.03739281150458979</v>
+        <v>-0.1715890006454679</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.2386654656803069</v>
+        <v>-0.1468295947416483</v>
       </c>
     </row>
     <row r="26">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.4910671481085754</v>
+        <v>-6.862865148783795</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.22137531450516</v>
+        <v>-13.88037637267091</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.005622789234379685</v>
+        <v>-0.3476056241376686</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1005532380648826</v>
+        <v>-0.2146656701773067</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.862865148783792</v>
+        <v>0.4910671481085808</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>13.88037637267089</v>
+        <v>-4.22137531450517</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.08669440392358443</v>
+        <v>0.02965273040704803</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3952307043826261</v>
+        <v>-0.07280123296018222</v>
       </c>
     </row>
     <row r="28">
@@ -1101,16 +1101,16 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>2.342507396707072</v>
+        <v>-2.342507396707072</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>4.834285552867268</v>
+        <v>-4.834285552867285</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>0.0277588000431698</v>
+        <v>-0.1500445420015309</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>0.06764550763206384</v>
+        <v>-0.1694159426955679</v>
       </c>
     </row>
     <row r="29">
@@ -1121,16 +1121,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6093764545235103</v>
+        <v>-3.948665399419546</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.706290981960218</v>
+        <v>-6.841415135900066</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>0.006402011575178669</v>
+        <v>-0.239199562521971</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.0375067876574367</v>
+        <v>-0.2302520103787287</v>
       </c>
     </row>
     <row r="30">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.948665399419542</v>
+        <v>-0.609376454523496</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.841415135900078</v>
+        <v>-2.706290981960215</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>0.04736220995724177</v>
+        <v>-0.04386577777757507</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.0972741298970603</v>
+        <v>-0.09857350759162165</v>
       </c>
     </row>
     <row r="31">

--- a/data/trans_bre/P36BPD07_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Provincia-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día</t>
+          <t>Población que consume al menos una bebida azucarada por día</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P36BPD07_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P36BPD07_R-Provincia-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>-2.321355233870609</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-2.932806724727413</v>
+        <v>-2.932806724727416</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.1446053073783012</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.1716028438666286</v>
+        <v>-0.1716028438666288</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.582497120863533</v>
+        <v>-8.151131274282944</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.260878260204352</v>
+        <v>-9.027685787292427</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.4377998767929225</v>
+        <v>-0.4294080661861098</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4370988524754751</v>
+        <v>-0.443857476985226</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.088996795639837</v>
+        <v>3.705953607200627</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.688248527477035</v>
+        <v>2.706352336783361</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.3325393646171386</v>
+        <v>0.2879560638874253</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.2964427225212797</v>
+        <v>0.1894644080933951</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>-0.2697043903658302</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.06982845279411641</v>
+        <v>-0.06982845279411642</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.041521703188922</v>
+        <v>-9.000311309461182</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-7.392352175547131</v>
+        <v>-7.321758132335051</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4724173015413343</v>
+        <v>-0.4747662804868617</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3070653284415458</v>
+        <v>-0.3063683613464579</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.3768754269465825</v>
+        <v>-0.248974625355728</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.698770527441274</v>
+        <v>3.802275514757818</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.02637415832393019</v>
+        <v>-0.009373240374718445</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2071730999885976</v>
+        <v>0.2141938526233312</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.090222682145414</v>
+        <v>-5.199411188775588</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.51072213393521</v>
+        <v>-13.99086931215427</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.8822652095201329</v>
+        <v>-0.8691634980785834</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.5680091649113679</v>
+        <v>-0.584703275594686</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.04999254439190821</v>
+        <v>0.04689793558814724</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.906653077972967</v>
+        <v>-3.266663969719946</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.0804502097516351</v>
+        <v>0.1890542045022483</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.1653042056674922</v>
+        <v>-0.189456292285314</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-5.201340636580667</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-1.821514514020484</v>
+        <v>-1.821514514020481</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.2451462002020219</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.106499915298711</v>
+        <v>-0.1064999152987109</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-10.95165712292885</v>
+        <v>-10.71805442382844</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-9.324752954250123</v>
+        <v>-8.195254965760373</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4421307620143679</v>
+        <v>-0.4493807290618942</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4149892061620976</v>
+        <v>-0.3902883158083463</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2821014335996478</v>
+        <v>0.4790903696394966</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.273908807862633</v>
+        <v>4.544309584715242</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.04122277564873887</v>
+        <v>0.02572674150264609</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3299192620975023</v>
+        <v>0.3420372325107379</v>
       </c>
     </row>
     <row r="16">
@@ -854,7 +854,7 @@
         <v>-0.2625510471984889</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>-0.457490999667232</v>
+        <v>-0.4574909996672321</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-12.12583788893879</v>
+        <v>-11.56236387032463</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-18.35601086014568</v>
+        <v>-17.68751074962967</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.5455018744992698</v>
+        <v>-0.5229402136019541</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.6284538046180904</v>
+        <v>-0.6257521007236506</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.962548429625746</v>
+        <v>2.127064094844057</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-5.145950215981394</v>
+        <v>-4.849135614910862</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.1520761357804552</v>
+        <v>0.1569352558256177</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.2499013978294702</v>
+        <v>-0.2309733947256695</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>-4.453053125158184</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>-7.020158613218627</v>
+        <v>-7.020158613218632</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.3362241015920486</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.4924511019477833</v>
+        <v>-0.4924511019477835</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-9.777418789055288</v>
+        <v>-9.902082738092782</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-12.06963173338085</v>
+        <v>-12.1809722957956</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5905790192169377</v>
+        <v>-0.5988081487885576</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6834417841725755</v>
+        <v>-0.6987050115326688</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9889796300791682</v>
+        <v>0.7577182550026209</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-2.935167460253139</v>
+        <v>-2.393665057627196</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1326946859456125</v>
+        <v>0.09331842399752548</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.2188486414805737</v>
+        <v>-0.1841598429983515</v>
       </c>
     </row>
     <row r="22">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.1395132840169676</v>
+        <v>-0.7801212639019761</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.223801177574618</v>
+        <v>-5.521071957270492</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.01349885666929543</v>
+        <v>-0.04202835305993695</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.2429139100282661</v>
+        <v>-0.2469114859847309</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.263252031134357</v>
+        <v>7.66517956959646</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.720836883488882</v>
+        <v>3.77829166492186</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.6682365149399643</v>
+        <v>0.6185796254471129</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.222351566486881</v>
+        <v>0.2336595420224467</v>
       </c>
     </row>
     <row r="25">
@@ -1040,13 +1040,13 @@
         <v>-3.070217016201307</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>-9.090428698699471</v>
+        <v>-9.090428698699448</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.1715890006454679</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.1468295947416483</v>
+        <v>-0.146829594741648</v>
       </c>
     </row>
     <row r="26">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-6.862865148783795</v>
+        <v>-7.060911300359678</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-13.88037637267091</v>
+        <v>-13.52686996146763</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3476056241376686</v>
+        <v>-0.3507206533845876</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2146656701773067</v>
+        <v>-0.2109160665760296</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4910671481085808</v>
+        <v>0.678614330544187</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-4.22137531450517</v>
+        <v>-4.360215323333998</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.02965273040704803</v>
+        <v>0.04147079237500483</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.07280123296018222</v>
+        <v>-0.07340757023865951</v>
       </c>
     </row>
     <row r="28">
@@ -1121,16 +1121,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.948665399419546</v>
+        <v>-4.088453318492478</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.841415135900066</v>
+        <v>-7.195418167944141</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>-0.239199562521971</v>
+        <v>-0.248151616117464</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.2302520103787287</v>
+        <v>-0.2366887407317572</v>
       </c>
     </row>
     <row r="30">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.609376454523496</v>
+        <v>-0.684401280237638</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.706290981960215</v>
+        <v>-2.630730441926867</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>-0.04386577777757507</v>
+        <v>-0.04776722582054876</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>-0.09857350759162165</v>
+        <v>-0.09753495503482146</v>
       </c>
     </row>
     <row r="31">
